--- a/Тесты/Проверочные вопросы НИ.xlsx
+++ b/Тесты/Проверочные вопросы НИ.xlsx
@@ -237,26 +237,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -265,6 +262,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -302,10 +302,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A6:D235" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5">
   <tableColumns count="4">
-    <tableColumn id="1" name="Тема №" dataDxfId="0"/>
-    <tableColumn id="2" name="№" dataDxfId="3"/>
-    <tableColumn id="3" name="Вопрос" dataDxfId="2"/>
-    <tableColumn id="4" name="Ответ" dataDxfId="1"/>
+    <tableColumn id="1" name="Тема №" dataDxfId="3"/>
+    <tableColumn id="2" name="№" dataDxfId="2"/>
+    <tableColumn id="3" name="Вопрос" dataDxfId="1"/>
+    <tableColumn id="4" name="Ответ" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -600,46 +600,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="80.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="92.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -656,7 +657,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="2">
@@ -668,7 +669,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -680,7 +681,7 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
       <c r="B9" s="2">
@@ -692,7 +693,7 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
       <c r="B10" s="2">
@@ -704,7 +705,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" s="2">
@@ -716,7 +717,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
       <c r="B12" s="2">
@@ -728,7 +729,7 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>4</v>
       </c>
       <c r="B13" s="2">
@@ -740,7 +741,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>4</v>
       </c>
       <c r="B14" s="2">
@@ -752,7 +753,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>4</v>
       </c>
       <c r="B15" s="2">
@@ -764,7 +765,7 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>4</v>
       </c>
       <c r="B16" s="2">
@@ -776,7 +777,7 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>4</v>
       </c>
       <c r="B17" s="2">
@@ -788,7 +789,7 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>4</v>
       </c>
       <c r="B18" s="2">
@@ -800,7 +801,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>4</v>
       </c>
       <c r="B19" s="2">
@@ -812,7 +813,7 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>4</v>
       </c>
       <c r="B20" s="2">
@@ -824,7 +825,7 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>4</v>
       </c>
       <c r="B21" s="2">
@@ -836,7 +837,7 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>4</v>
       </c>
       <c r="B22" s="2">
@@ -848,7 +849,7 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>4</v>
       </c>
       <c r="B23" s="2">
@@ -860,7 +861,7 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>4</v>
       </c>
       <c r="B24" s="2">
@@ -872,7 +873,7 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>4</v>
       </c>
       <c r="B25" s="2">
@@ -884,7 +885,7 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>4</v>
       </c>
       <c r="B26" s="2">
@@ -896,7 +897,7 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>4</v>
       </c>
       <c r="B27" s="2">
@@ -908,7 +909,7 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>4</v>
       </c>
       <c r="B28" s="2">
@@ -920,7 +921,7 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>4</v>
       </c>
       <c r="B29" s="2">
@@ -932,7 +933,7 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>4</v>
       </c>
       <c r="B30" s="2">
@@ -944,7 +945,7 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>4</v>
       </c>
       <c r="B31" s="2">
@@ -956,7 +957,7 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>5</v>
       </c>
       <c r="B32" s="2">
@@ -968,7 +969,7 @@
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>5</v>
       </c>
       <c r="B33" s="2">
@@ -980,7 +981,7 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>5</v>
       </c>
       <c r="B34" s="2">
@@ -992,7 +993,7 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>5</v>
       </c>
       <c r="B35" s="2">
@@ -1004,7 +1005,7 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>6</v>
       </c>
       <c r="B36" s="2">
@@ -1016,7 +1017,7 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>6</v>
       </c>
       <c r="B37" s="2">
@@ -1028,7 +1029,7 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>6</v>
       </c>
       <c r="B38" s="2">
@@ -1040,7 +1041,7 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>6</v>
       </c>
       <c r="B39" s="2">
@@ -1052,7 +1053,7 @@
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>6</v>
       </c>
       <c r="B40" s="2">
@@ -1064,7 +1065,7 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>6</v>
       </c>
       <c r="B41" s="2">
@@ -1076,7 +1077,7 @@
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>6</v>
       </c>
       <c r="B42" s="2">
@@ -1088,7 +1089,7 @@
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>7</v>
       </c>
       <c r="B43" s="2">
@@ -1100,7 +1101,7 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>7</v>
       </c>
       <c r="B44" s="2">
@@ -1112,7 +1113,7 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>7</v>
       </c>
       <c r="B45" s="2">
@@ -1121,7 +1122,7 @@
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>7</v>
       </c>
       <c r="B46" s="2">
@@ -1130,7 +1131,7 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>7</v>
       </c>
       <c r="B47" s="2">
@@ -1139,7 +1140,7 @@
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>7</v>
       </c>
       <c r="B48" s="2">
@@ -1148,7 +1149,7 @@
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>7</v>
       </c>
       <c r="B49" s="2">
@@ -1157,7 +1158,7 @@
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>7</v>
       </c>
       <c r="B50" s="2">
@@ -1166,7 +1167,7 @@
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>7</v>
       </c>
       <c r="B51" s="2">
@@ -1175,7 +1176,7 @@
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+      <c r="A52" s="5">
         <v>7</v>
       </c>
       <c r="B52" s="2">
@@ -1184,7 +1185,7 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
+      <c r="A53" s="5">
         <v>7</v>
       </c>
       <c r="B53" s="2">
@@ -1193,7 +1194,7 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+      <c r="A54" s="5">
         <v>7</v>
       </c>
       <c r="B54" s="2">
@@ -1202,7 +1203,7 @@
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
+      <c r="A55" s="5">
         <v>7</v>
       </c>
       <c r="B55" s="2">
@@ -1211,7 +1212,7 @@
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
+      <c r="A56" s="5">
         <v>8</v>
       </c>
       <c r="B56" s="2">
@@ -1220,7 +1221,7 @@
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
+      <c r="A57" s="5">
         <v>8</v>
       </c>
       <c r="B57" s="2">
@@ -1229,7 +1230,7 @@
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
+      <c r="A58" s="5">
         <v>8</v>
       </c>
       <c r="B58" s="2">
@@ -1238,7 +1239,7 @@
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
+      <c r="A59" s="5">
         <v>8</v>
       </c>
       <c r="B59" s="2">
@@ -1247,7 +1248,7 @@
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+      <c r="A60" s="5">
         <v>8</v>
       </c>
       <c r="B60" s="2">
@@ -1256,7 +1257,7 @@
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
+      <c r="A61" s="5">
         <v>8</v>
       </c>
       <c r="B61" s="2">
@@ -1265,7 +1266,7 @@
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
+      <c r="A62" s="5">
         <v>8</v>
       </c>
       <c r="B62" s="2">
@@ -1274,7 +1275,7 @@
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
+      <c r="A63" s="5">
         <v>8</v>
       </c>
       <c r="B63" s="2">
@@ -1283,7 +1284,7 @@
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
+      <c r="A64" s="5">
         <v>8</v>
       </c>
       <c r="B64" s="2">
@@ -1292,7 +1293,7 @@
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
+      <c r="A65" s="5">
         <v>8</v>
       </c>
       <c r="B65" s="2">
@@ -1301,7 +1302,7 @@
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
+      <c r="A66" s="5">
         <v>8</v>
       </c>
       <c r="B66" s="2">

--- a/Тесты/Проверочные вопросы НИ.xlsx
+++ b/Тесты/Проверочные вопросы НИ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="16260" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="16260" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -135,25 +135,25 @@
     <t>Нужно ли вычислять производные при обучении сети из одного нейрона?</t>
   </si>
   <si>
-    <t xml:space="preserve">Сколько скалярных параметров обучения у многослойного персептрона из двух слоёв по два нейрона в каждом?два </t>
-  </si>
-  <si>
     <t>Минимизация методом градиентного спуска требует вычисления производных первого порядка (да/нет)</t>
   </si>
   <si>
     <t>Минимизация методом градиентного спуска требует вычисления производных второго порядка (да/нет)</t>
   </si>
   <si>
-    <t>Обучение ИНС требует вычисления частных производных функции ошибки (да/нет)</t>
-  </si>
-  <si>
-    <t>Обучение ИНС требует вычисления производных функций активации (да/нет)</t>
-  </si>
-  <si>
     <t>Градиентные методы обучения ИНС - это итеративные алгоритмы (да/нет)</t>
   </si>
   <si>
     <t>Величина шага обучения - это итеративно изменяемый параметр ИНС в алгоритме скорейшего спуска (да/нет)</t>
+  </si>
+  <si>
+    <t>Сколько скалярных параметров обучения у многослойного персептрона из двух слоёв по два нейрона в каждом?</t>
+  </si>
+  <si>
+    <t>Градиентное обучение ИНС требует вычисления производных функций активации (да/нет)</t>
+  </si>
+  <si>
+    <t>Градиентное обучение ИНС требует вычисления частных производных функции ошибки (да/нет)</t>
   </si>
 </sst>
 </file>
@@ -188,12 +188,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -223,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -248,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,15 +609,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="4.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="92.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="102.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.5546875" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
   </cols>
@@ -915,7 +924,7 @@
       <c r="B28" s="2">
         <v>22</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="2"/>
@@ -963,7 +972,7 @@
       <c r="B32" s="2">
         <v>26</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="2"/>
@@ -999,7 +1008,7 @@
       <c r="B35" s="2">
         <v>29</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="2"/>
@@ -1036,7 +1045,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -1048,7 +1057,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -1060,7 +1069,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -1071,8 +1080,8 @@
       <c r="B41" s="2">
         <v>35</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>43</v>
+      <c r="C41" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -1083,8 +1092,8 @@
       <c r="B42" s="2">
         <v>36</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>42</v>
+      <c r="C42" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -1096,7 +1105,7 @@
         <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -1108,7 +1117,7 @@
         <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2"/>
     </row>

--- a/Тесты/Проверочные вопросы НИ.xlsx
+++ b/Тесты/Проверочные вопросы НИ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Какой класс функций используется в формуле теоремы Колмогорова?</t>
   </si>
@@ -108,9 +108,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>Как при помощи сумматора и функции активации скалярного аргумента реализовать произведение двух скалярных аргументов?</t>
-  </si>
-  <si>
     <t>Могут ли в матрице связей произведения двух ИНС единицы на главной диагонали?</t>
   </si>
   <si>
@@ -154,6 +151,33 @@
   </si>
   <si>
     <t>Градиентное обучение ИНС требует вычисления частных производных функции ошибки (да/нет)</t>
+  </si>
+  <si>
+    <t>Какие виды регуляризации можно использовать с градиентными методами обучения?</t>
+  </si>
+  <si>
+    <t>1. L1; 2. L2; 3. L3</t>
+  </si>
+  <si>
+    <t>Варианты ответов</t>
+  </si>
+  <si>
+    <t>1. Аналитическая; 2. Непрерывная; 3. Кусочно-непрерывная</t>
+  </si>
+  <si>
+    <t>1. p; 2. (2n+1)*n; 3. (2n+1)*n+2n+1</t>
+  </si>
+  <si>
+    <t>1. 1, нелинейную; 2. нейлинейную, аналитическую</t>
+  </si>
+  <si>
+    <t>1. *,+, 1, ^2; 2. *,+,1</t>
+  </si>
+  <si>
+    <t>1. функция; 2. f(x) = Sigmoid(Sum(x*w))</t>
+  </si>
+  <si>
+    <t>1. Разделение входного пространства гиперплоскостью; 2. Разделение входного пространства гиперсферой</t>
   </si>
 </sst>
 </file>
@@ -188,21 +212,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -220,6 +238,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -255,14 +286,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -309,12 +343,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A6:D235" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5">
-  <tableColumns count="4">
-    <tableColumn id="1" name="Тема №" dataDxfId="3"/>
-    <tableColumn id="2" name="№" dataDxfId="2"/>
-    <tableColumn id="3" name="Вопрос" dataDxfId="1"/>
-    <tableColumn id="4" name="Ответ" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A6:E234" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Тема №" dataDxfId="4"/>
+    <tableColumn id="2" name="№" dataDxfId="3"/>
+    <tableColumn id="3" name="Вопрос" dataDxfId="2"/>
+    <tableColumn id="4" name="Ответ" dataDxfId="1"/>
+    <tableColumn id="5" name="Варианты ответов" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -607,22 +642,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="4.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="102.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="107.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
@@ -630,28 +665,28 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -664,8 +699,11 @@
       <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -676,8 +714,11 @@
         <v>0</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -688,8 +729,11 @@
         <v>1</v>
       </c>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -700,8 +744,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -712,8 +759,11 @@
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -724,8 +774,11 @@
         <v>4</v>
       </c>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -736,8 +789,11 @@
         <v>5</v>
       </c>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -748,1083 +804,1300 @@
         <v>6</v>
       </c>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>22</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>5</v>
       </c>
       <c r="B32" s="2">
-        <v>26</v>
-      </c>
-      <c r="C32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>5</v>
       </c>
       <c r="B33" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" s="2">
-        <v>29</v>
-      </c>
-      <c r="C35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>6</v>
       </c>
       <c r="B36" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>6</v>
       </c>
       <c r="B37" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>6</v>
       </c>
       <c r="B38" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>6</v>
       </c>
       <c r="B39" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>6</v>
       </c>
       <c r="B40" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>35</v>
-      </c>
-      <c r="C41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B42" s="2">
-        <v>36</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>7</v>
       </c>
       <c r="B43" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>7</v>
       </c>
       <c r="B44" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>7</v>
       </c>
       <c r="B45" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>7</v>
       </c>
       <c r="B46" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>7</v>
       </c>
       <c r="B47" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>7</v>
       </c>
       <c r="B48" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>7</v>
       </c>
       <c r="B49" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>7</v>
       </c>
       <c r="B50" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>7</v>
       </c>
       <c r="B51" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>7</v>
       </c>
       <c r="B52" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>7</v>
       </c>
       <c r="B53" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>7</v>
       </c>
       <c r="B54" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>8</v>
       </c>
       <c r="B56" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>8</v>
       </c>
       <c r="B57" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>8</v>
       </c>
       <c r="B58" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>8</v>
       </c>
       <c r="B59" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>8</v>
       </c>
       <c r="B60" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>8</v>
       </c>
       <c r="B61" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>8</v>
       </c>
       <c r="B62" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>8</v>
       </c>
       <c r="B63" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>8</v>
       </c>
       <c r="B64" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>8</v>
       </c>
       <c r="B65" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
-        <v>8</v>
-      </c>
-      <c r="B66" s="2">
-        <v>60</v>
-      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D172" s="2"/>
-    </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D173" s="2"/>
-    </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D174" s="2"/>
-    </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D175" s="2"/>
-    </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D184" s="2"/>
-    </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D186" s="2"/>
-    </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D187" s="2"/>
-    </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D191" s="2"/>
-    </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D192" s="2"/>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D193" s="2"/>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D194" s="2"/>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D195" s="2"/>
-    </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D196" s="2"/>
-    </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D197" s="2"/>
-    </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D198" s="2"/>
-    </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D199" s="2"/>
-    </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D200" s="2"/>
-    </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D202" s="2"/>
-    </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D203" s="2"/>
-    </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D204" s="2"/>
-    </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D205" s="2"/>
-    </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D206" s="2"/>
-    </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D207" s="2"/>
-    </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D208" s="2"/>
-    </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D209" s="2"/>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D210" s="2"/>
-    </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D211" s="2"/>
-    </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D212" s="2"/>
-    </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D213" s="2"/>
-    </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D214" s="2"/>
-    </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D215" s="2"/>
-    </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D216" s="2"/>
-    </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D217" s="2"/>
-    </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D218" s="2"/>
-    </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D219" s="2"/>
-    </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D220" s="2"/>
-    </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D221" s="2"/>
-    </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D222" s="2"/>
-    </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D223" s="2"/>
-    </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D224" s="2"/>
-    </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D225" s="2"/>
-    </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D226" s="2"/>
-    </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D227" s="2"/>
-    </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D228" s="2"/>
-    </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D229" s="2"/>
-    </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D230" s="2"/>
-    </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D231" s="2"/>
-    </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D232" s="2"/>
-    </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D233" s="2"/>
-    </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D234" s="2"/>
-    </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D235" s="2"/>
+      <c r="E234" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Тесты/Проверочные вопросы НИ.xlsx
+++ b/Тесты/Проверочные вопросы НИ.xlsx
@@ -1,51 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="16260" windowHeight="8940"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
-    <t>Какой класс функций используется в формуле теоремы Колмогорова?</t>
-  </si>
-  <si>
-    <t>Сколько функций в формуле теоремы Колмогорова не зависят от функции f(x1, x2, ..., xn)?</t>
-  </si>
-  <si>
-    <t>Сколько всего функций в формуле теоремы Колмогорова?</t>
-  </si>
-  <si>
-    <t>Какие функции должно включать подмножество E из Обобщенной теоремы Стоуна-Вейрштрасса?</t>
-  </si>
-  <si>
-    <t>Каких операций достаточно для приближения любой непрерывной функции многих переменных, согласно ОТСВ?</t>
-  </si>
-  <si>
-    <t>Что такое стандартный формальный нейрон?</t>
-  </si>
-  <si>
-    <t>Геометрическая интерпретация  работы формального нейрона.</t>
-  </si>
-  <si>
-    <t>Функция активации и её производная: линейная</t>
-  </si>
-  <si>
-    <t>Функция активации и её производная: радиально-базисная</t>
-  </si>
-  <si>
-    <t>Функция активации и её производная: линейный выпрямитель</t>
+    <t xml:space="preserve">Проверочные вопросы к дисциплине "Нейронные сети"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тема №</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ответ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Варианты ответов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой класс функций используется в формуле теоремы Колмогорова?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Аналитическая; 2. Непрерывная; 3. Кусочно-непрерывная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сколько функций в формуле теоремы Колмогорова не зависят от функции f(x1, x2, ..., xn)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. p; 2. (2n+1)*n; 3. (2n+1)*n+2n+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сколько всего функций в формуле теоремы Колмогорова?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие функции должно включать подмножество E из Обобщенной теоремы Стоуна-Вейрштрасса?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 1, нелинейную; 2. нейлинейную, аналитическую</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каких операций достаточно для приближения любой непрерывной функции многих переменных, согласно ОТСВ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. *,+, 1, ^2; 2. *,+,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что такое стандартный формальный нейрон?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. функция; 2. f(x) = Sigmoid(Sum(x*w))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Геометрическая интерпретация  работы формального нейрона.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Разделение входного пространства гиперплоскостью; 2. Разделение входного пространства гиперсферой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Функция активации и её производная: линейная</t>
   </si>
   <si>
     <t xml:space="preserve">Функция активации и её производная: экспоненциальная функция активации (функция Ферми) </t>
@@ -54,343 +99,345 @@
     <t xml:space="preserve">Функция активации и её производная: рациональная сигмоида </t>
   </si>
   <si>
-    <t>Функция активации и её производная: гиперболический тангенс</t>
-  </si>
-  <si>
-    <t>Какая размерность матрицы связи для двух нейронов: 1-й - 2 выхода, 2-й - 3 входа</t>
-  </si>
-  <si>
-    <t>Какая размерность функции выхода G в формальном определении ИНС?</t>
-  </si>
-  <si>
-    <t>Какая размерность функции изменения состояния H в формальном определении ИНС?</t>
-  </si>
-  <si>
-    <t>Сколько единиц в матрице связей ИНС из 4-х нейронов: 1-&gt;2,1-&gt;3,2-&gt;4,3-&gt;4?</t>
-  </si>
-  <si>
-    <t>Может ли входной нейрон быть оодновременно и выходным?</t>
-  </si>
-  <si>
-    <t>Замкнут ли класс функций, вычислимый с помощью ИНС вида 2*x^2+3*y^2+xy+1, где x,y - входные значения?</t>
-  </si>
-  <si>
-    <t>Можно ли соединить 2 сети разной размерности (количество нейронов, входов и выходов разное)?</t>
-  </si>
-  <si>
-    <t>Могут ли в матрице связей многослойной ИНС стоять единицы на главной диагонали?</t>
-  </si>
-  <si>
-    <t>Могут ли в матрице связей многослойной ИНС стоять единицы под главной диагональю?</t>
-  </si>
-  <si>
-    <t>Проверочные вопросы к дисциплине "Нейронные сети"</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Группа</t>
-  </si>
-  <si>
-    <t>Тема №</t>
-  </si>
-  <si>
-    <t>Вопрос</t>
-  </si>
-  <si>
-    <t>Ответ</t>
-  </si>
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Могут ли в матрице связей произведения двух ИНС единицы на главной диагонали?</t>
-  </si>
-  <si>
-    <t>Могут ли в матрице связей многослойной ИНС быть единицы на главной диагонали?</t>
-  </si>
-  <si>
-    <t>Обучающая выборка это функция (да/нет)?</t>
-  </si>
-  <si>
-    <t>Функция ошибки ИНС должна быть непрерывной и дифференцируемой (да/нет)?</t>
-  </si>
-  <si>
-    <t>Задача обучения сети состоит в поиске экстремума функции ошибки ИНС (да/нет)?</t>
-  </si>
-  <si>
-    <t>Что изменяется и что минимизируется при обучении ИНС?</t>
-  </si>
-  <si>
-    <t>Формула функционирования сети из одного нейрона:</t>
-  </si>
-  <si>
-    <t>Нужно ли вычислять производные при обучении сети из одного нейрона?</t>
-  </si>
-  <si>
-    <t>Минимизация методом градиентного спуска требует вычисления производных первого порядка (да/нет)</t>
-  </si>
-  <si>
-    <t>Минимизация методом градиентного спуска требует вычисления производных второго порядка (да/нет)</t>
-  </si>
-  <si>
-    <t>Градиентные методы обучения ИНС - это итеративные алгоритмы (да/нет)</t>
-  </si>
-  <si>
-    <t>Величина шага обучения - это итеративно изменяемый параметр ИНС в алгоритме скорейшего спуска (да/нет)</t>
-  </si>
-  <si>
-    <t>Сколько скалярных параметров обучения у многослойного персептрона из двух слоёв по два нейрона в каждом?</t>
-  </si>
-  <si>
-    <t>Градиентное обучение ИНС требует вычисления производных функций активации (да/нет)</t>
-  </si>
-  <si>
-    <t>Градиентное обучение ИНС требует вычисления частных производных функции ошибки (да/нет)</t>
-  </si>
-  <si>
-    <t>Какие виды регуляризации можно использовать с градиентными методами обучения?</t>
-  </si>
-  <si>
-    <t>1. L1; 2. L2; 3. L3</t>
-  </si>
-  <si>
-    <t>Варианты ответов</t>
-  </si>
-  <si>
-    <t>1. Аналитическая; 2. Непрерывная; 3. Кусочно-непрерывная</t>
-  </si>
-  <si>
-    <t>1. p; 2. (2n+1)*n; 3. (2n+1)*n+2n+1</t>
-  </si>
-  <si>
-    <t>1. 1, нелинейную; 2. нейлинейную, аналитическую</t>
-  </si>
-  <si>
-    <t>1. *,+, 1, ^2; 2. *,+,1</t>
-  </si>
-  <si>
-    <t>1. функция; 2. f(x) = Sigmoid(Sum(x*w))</t>
-  </si>
-  <si>
-    <t>1. Разделение входного пространства гиперплоскостью; 2. Разделение входного пространства гиперсферой</t>
+    <t xml:space="preserve">Функция активации и её производная: гиперболический тангенс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Функция активации и её производная: радиально-базисная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Функция активации и её производная: линейный выпрямитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какая размерность матрицы связи для двух нейронов: 1-й - 2 выхода, 2-й - 3 входа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какая размерность функции выхода G в формальном определении ИНС?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какая размерность функции изменения состояния H в формальном определении ИНС?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сколько единиц в матрице связей ИНС из 4-х нейронов: 1-&gt;2,1-&gt;3,2-&gt;4,3-&gt;4?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Может ли входной нейрон быть одновременно и выходным?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Замкнут ли класс функций, вычислимый с помощью ИНС вида 2*x^2+3*y^2+xy+1, где x,y - входные значения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно ли соединить 2 сети разной размерности (количество нейронов, входов и выходов разное)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли в матрице связей многослойной ИНС стоять единицы на главной диагонали?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли в матрице связей многослойной ИНС стоять единицы под главной диагональю?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли в матрице связей многослойной ИНС быть единицы на главной диагонали?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли в матрице связей произведения двух ИНС единицы на главной диагонали?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обучающая выборка это функция (да/нет)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Функция ошибки ИНС должна быть непрерывной и дифференцируемой (да/нет)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задача обучения сети состоит в поиске экстремума функции ошибки ИНС (да/нет)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что изменяется и что минимизируется при обучении ИНС?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Формула функционирования сети из одного нейрона:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нужно ли вычислять производные при обучении сети из одного нейрона?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сколько скалярных параметров обучения у многослойного персептрона из двух слоёв по два нейрона в каждом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимизация методом градиентного спуска требует вычисления производных первого порядка (да/нет)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимизация методом градиентного спуска требует вычисления производных второго порядка (да/нет)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Градиентное обучение ИНС требует вычисления производных функций активации (да/нет)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Градиентное обучение ИНС требует вычисления частных производных функции ошибки (да/нет)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Градиентные методы обучения ИНС - это итеративные алгоритмы (да/нет)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Величина шага обучения - это итеративно изменяемый параметр ИНС в алгоритме скорейшего спуска (да/нет)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие виды регуляризации можно использовать с градиентными методами обучения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. L1; 2. L2; 3. L3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="3">
     <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A6:E234" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица2" displayName="Таблица2" ref="A6:E234" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="Тема №" dataDxfId="4"/>
-    <tableColumn id="2" name="№" dataDxfId="3"/>
-    <tableColumn id="3" name="Вопрос" dataDxfId="2"/>
-    <tableColumn id="4" name="Ответ" dataDxfId="1"/>
-    <tableColumn id="5" name="Варианты ответов" dataDxfId="0"/>
+    <tableColumn id="1" name="Тема №"/>
+    <tableColumn id="2" name="№"/>
+    <tableColumn id="3" name="Вопрос"/>
+    <tableColumn id="4" name="Ответ"/>
+    <tableColumn id="5" name="Варианты ответов"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -398,1742 +445,1662 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="107.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="107.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
+    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
+      <c r="C20" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
+      <c r="C23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
+      <c r="C24" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>18</v>
+      <c r="C25" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
+      <c r="C27" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>21</v>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>31</v>
+      <c r="C29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>30</v>
+      <c r="C30" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>32</v>
+      <c r="C31" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>33</v>
+      <c r="C32" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>34</v>
+      <c r="C33" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>35</v>
+      <c r="C34" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>36</v>
+      <c r="C35" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>37</v>
+      <c r="C36" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>42</v>
+      <c r="C37" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>38</v>
+      <c r="C38" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>39</v>
+      <c r="C39" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>43</v>
+      <c r="C40" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>44</v>
+      <c r="C41" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>40</v>
+      <c r="C42" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>41</v>
+      <c r="C43" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>45</v>
+      <c r="C44" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="n">
         <v>40</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="2" t="n">
         <v>41</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="2" t="n">
         <v>42</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="2" t="n">
         <v>43</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="2" t="n">
         <v>44</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="2" t="n">
         <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="2" t="n">
         <v>46</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="2" t="n">
         <v>47</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="2" t="n">
         <v>48</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="2" t="n">
         <v>49</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="2" t="n">
         <v>50</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="2" t="n">
         <v>51</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="2" t="n">
         <v>52</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="2" t="n">
         <v>53</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="2" t="n">
         <v>54</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="2" t="n">
         <v>55</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="2" t="n">
         <v>56</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="2" t="n">
         <v>57</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="2" t="n">
         <v>58</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="2" t="n">
         <v>59</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="2" t="n">
         <v>60</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>